--- a/data-raw/GHA-PSB.xlsx
+++ b/data-raw/GHA-PSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1164A68-AD4F-3640-BAD9-51A5C01235A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D7D05B-A86F-3144-8743-F2805EF77031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
   <si>
     <t>Country</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>ktoe_to_TJ</t>
+  </si>
+  <si>
+    <t>TJ</t>
   </si>
 </sst>
 </file>
@@ -8119,7 +8122,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8224,7 +8227,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <f>'FixedGHPSB ktoe original'!J2*Meta!$B$8</f>
@@ -8290,7 +8293,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <f>'FixedGHPSB ktoe original'!J3*Meta!$B$8</f>
@@ -8356,7 +8359,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <f>'FixedGHPSB ktoe original'!J4*Meta!$B$8</f>
@@ -8422,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <f>'FixedGHPSB ktoe original'!J5*Meta!$B$8</f>
@@ -8488,7 +8491,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <f>'FixedGHPSB ktoe original'!J6*Meta!$B$8</f>
@@ -8554,7 +8557,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <f>'FixedGHPSB ktoe original'!J7*Meta!$B$8</f>

--- a/data-raw/GHA-PSB.xlsx
+++ b/data-raw/GHA-PSB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D7D05B-A86F-3144-8743-F2805EF77031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7D959-5DAB-9C4A-93A5-15719BB5CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="25" r:id="rId1"/>
@@ -5565,8 +5565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D342994A-25DA-554E-8845-9DECD19C2826}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5601,7 +5601,7 @@
         <v>37</v>
       </c>
       <c r="B8">
-        <v>41.87</v>
+        <v>41.868000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8121,7 +8121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
@@ -8231,39 +8231,39 @@
       </c>
       <c r="J2">
         <f>'FixedGHPSB ktoe original'!J2*Meta!$B$8</f>
-        <v>168526.75</v>
+        <v>168518.7</v>
       </c>
       <c r="K2">
         <f>'FixedGHPSB ktoe original'!K2*Meta!$B$8</f>
-        <v>172085.69999999998</v>
+        <v>172077.48</v>
       </c>
       <c r="L2">
         <f>'FixedGHPSB ktoe original'!L2*Meta!$B$8</f>
-        <v>174388.55</v>
+        <v>174380.22</v>
       </c>
       <c r="M2">
         <f>'FixedGHPSB ktoe original'!M2*Meta!$B$8</f>
-        <v>175435.3</v>
+        <v>175426.92</v>
       </c>
       <c r="N2">
         <f>'FixedGHPSB ktoe original'!N2*Meta!$B$8</f>
-        <v>175225.94999999998</v>
+        <v>175217.58000000002</v>
       </c>
       <c r="O2">
         <f>'FixedGHPSB ktoe original'!O2*Meta!$B$8</f>
-        <v>173551.15</v>
+        <v>173542.86000000002</v>
       </c>
       <c r="P2">
         <f>'FixedGHPSB ktoe original'!P2*Meta!$B$8</f>
-        <v>170829.59999999998</v>
+        <v>170821.44</v>
       </c>
       <c r="Q2">
         <f>'FixedGHPSB ktoe original'!Q2*Meta!$B$8</f>
-        <v>167270.65</v>
+        <v>167262.66</v>
       </c>
       <c r="R2">
         <f>'FixedGHPSB ktoe original'!R2*Meta!$B$8</f>
-        <v>162874.29999999999</v>
+        <v>162866.52000000002</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -8297,39 +8297,39 @@
       </c>
       <c r="J3">
         <f>'FixedGHPSB ktoe original'!J3*Meta!$B$8</f>
-        <v>-49783.43</v>
+        <v>-49781.052000000003</v>
       </c>
       <c r="K3">
         <f>'FixedGHPSB ktoe original'!K3*Meta!$B$8</f>
-        <v>-50620.829999999994</v>
+        <v>-50618.412000000004</v>
       </c>
       <c r="L3">
         <f>'FixedGHPSB ktoe original'!L3*Meta!$B$8</f>
-        <v>-51039.53</v>
+        <v>-51037.092000000004</v>
       </c>
       <c r="M3">
         <f>'FixedGHPSB ktoe original'!M3*Meta!$B$8</f>
-        <v>-51039.53</v>
+        <v>-51037.092000000004</v>
       </c>
       <c r="N3">
         <f>'FixedGHPSB ktoe original'!N3*Meta!$B$8</f>
-        <v>-50620.829999999994</v>
+        <v>-50618.412000000004</v>
       </c>
       <c r="O3">
         <f>'FixedGHPSB ktoe original'!O3*Meta!$B$8</f>
-        <v>-49364.729999999996</v>
+        <v>-49362.372000000003</v>
       </c>
       <c r="P3">
         <f>'FixedGHPSB ktoe original'!P3*Meta!$B$8</f>
-        <v>-47899.28</v>
+        <v>-47896.992000000006</v>
       </c>
       <c r="Q3">
         <f>'FixedGHPSB ktoe original'!Q3*Meta!$B$8</f>
-        <v>-46433.829999999994</v>
+        <v>-46431.612000000001</v>
       </c>
       <c r="R3">
         <f>'FixedGHPSB ktoe original'!R3*Meta!$B$8</f>
-        <v>-44968.38</v>
+        <v>-44966.232000000004</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -8363,39 +8363,39 @@
       </c>
       <c r="J4">
         <f>'FixedGHPSB ktoe original'!J4*Meta!$B$8</f>
-        <v>105261.18</v>
+        <v>105256.152</v>
       </c>
       <c r="K4">
         <f>'FixedGHPSB ktoe original'!K4*Meta!$B$8</f>
-        <v>106517.28</v>
+        <v>106512.19200000001</v>
       </c>
       <c r="L4">
         <f>'FixedGHPSB ktoe original'!L4*Meta!$B$8</f>
-        <v>106935.98</v>
+        <v>106930.872</v>
       </c>
       <c r="M4">
         <f>'FixedGHPSB ktoe original'!M4*Meta!$B$8</f>
-        <v>106517.28</v>
+        <v>106512.19200000001</v>
       </c>
       <c r="N4">
         <f>'FixedGHPSB ktoe original'!N4*Meta!$B$8</f>
-        <v>105261.18</v>
+        <v>105256.152</v>
       </c>
       <c r="O4">
         <f>'FixedGHPSB ktoe original'!O4*Meta!$B$8</f>
-        <v>103167.67999999999</v>
+        <v>103162.75200000001</v>
       </c>
       <c r="P4">
         <f>'FixedGHPSB ktoe original'!P4*Meta!$B$8</f>
-        <v>100236.78</v>
+        <v>100231.992</v>
       </c>
       <c r="Q4">
         <f>'FixedGHPSB ktoe original'!Q4*Meta!$B$8</f>
-        <v>96468.479999999996</v>
+        <v>96463.872000000003</v>
       </c>
       <c r="R4">
         <f>'FixedGHPSB ktoe original'!R4*Meta!$B$8</f>
-        <v>91862.78</v>
+        <v>91858.392000000007</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -8495,39 +8495,39 @@
       </c>
       <c r="J6">
         <f>'FixedGHPSB ktoe original'!J6*Meta!$B$8</f>
-        <v>13482.14</v>
+        <v>13481.496000000001</v>
       </c>
       <c r="K6">
         <f>'FixedGHPSB ktoe original'!K6*Meta!$B$8</f>
-        <v>14947.589999999998</v>
+        <v>14946.876</v>
       </c>
       <c r="L6">
         <f>'FixedGHPSB ktoe original'!L6*Meta!$B$8</f>
-        <v>16413.039999999997</v>
+        <v>16412.256000000001</v>
       </c>
       <c r="M6">
         <f>'FixedGHPSB ktoe original'!M6*Meta!$B$8</f>
-        <v>17878.489999999998</v>
+        <v>17877.636000000002</v>
       </c>
       <c r="N6">
         <f>'FixedGHPSB ktoe original'!N6*Meta!$B$8</f>
-        <v>19343.939999999999</v>
+        <v>19343.016</v>
       </c>
       <c r="O6">
         <f>'FixedGHPSB ktoe original'!O6*Meta!$B$8</f>
-        <v>21018.739999999998</v>
+        <v>21017.736000000001</v>
       </c>
       <c r="P6">
         <f>'FixedGHPSB ktoe original'!P6*Meta!$B$8</f>
-        <v>22693.539999999997</v>
+        <v>22692.456000000002</v>
       </c>
       <c r="Q6">
         <f>'FixedGHPSB ktoe original'!Q6*Meta!$B$8</f>
-        <v>24368.34</v>
+        <v>24367.175999999999</v>
       </c>
       <c r="R6">
         <f>'FixedGHPSB ktoe original'!R6*Meta!$B$8</f>
-        <v>26043.14</v>
+        <v>26041.896000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">

--- a/data-raw/GHA-PSB.xlsx
+++ b/data-raw/GHA-PSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7D959-5DAB-9C4A-93A5-15719BB5CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648D576-6DEE-244B-8837-EC6531C3B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,13 +193,13 @@
     <t>The original calculations were made in ktoe as shown in FixedGHPSB ktoe original</t>
   </si>
   <si>
-    <t>We're now using TJ units throughout IEATools. So FixedGHPSB converts to TJ by multiplying all values by 41.87 TJ/ktoe. See https://www.iea.org/data-and-statistics/data-tools/unit-converter for unit conversions.</t>
-  </si>
-  <si>
     <t>ktoe_to_TJ</t>
   </si>
   <si>
     <t>TJ</t>
+  </si>
+  <si>
+    <t>We're now using TJ units throughout IEATools. So FixedGHPSB converts to TJ by multiplying all values by 41.868 TJ/ktoe. See https://www.iea.org/data-and-statistics/data-tools/unit-converter for unit conversions.</t>
   </si>
 </sst>
 </file>
@@ -5566,7 +5566,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5593,12 +5593,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>41.868000000000002</v>
@@ -5611,6 +5611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8227,7 +8228,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2">
         <f>'FixedGHPSB ktoe original'!J2*Meta!$B$8</f>
@@ -8293,7 +8294,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3">
         <f>'FixedGHPSB ktoe original'!J3*Meta!$B$8</f>
@@ -8359,7 +8360,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4">
         <f>'FixedGHPSB ktoe original'!J4*Meta!$B$8</f>
@@ -8425,7 +8426,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <f>'FixedGHPSB ktoe original'!J5*Meta!$B$8</f>
@@ -8491,7 +8492,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <f>'FixedGHPSB ktoe original'!J6*Meta!$B$8</f>
@@ -8557,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <f>'FixedGHPSB ktoe original'!J7*Meta!$B$8</f>

--- a/data-raw/GHA-PSB.xlsx
+++ b/data-raw/GHA-PSB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648D576-6DEE-244B-8837-EC6531C3B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE7B07-AF0E-3A46-B71E-D076794D77EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="25" r:id="rId1"/>
@@ -103,13 +103,7 @@
     <t>Residential</t>
   </si>
   <si>
-    <t>Ledger.side</t>
-  </si>
-  <si>
     <t>Consumption</t>
-  </si>
-  <si>
-    <t>Flow.aggregation.point</t>
   </si>
   <si>
     <t>Flow</t>
@@ -169,13 +163,7 @@
     <t>PCM</t>
   </si>
   <si>
-    <t>Energy.type</t>
-  </si>
-  <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>Last.stage</t>
   </si>
   <si>
     <t>Final</t>
@@ -200,6 +188,18 @@
   </si>
   <si>
     <t>We're now using TJ units throughout IEATools. So FixedGHPSB converts to TJ by multiplying all values by 41.868 TJ/ktoe. See https://www.iea.org/data-and-statistics/data-tools/unit-converter for unit conversions.</t>
+  </si>
+  <si>
+    <t>EnergyType</t>
+  </si>
+  <si>
+    <t>LastStage</t>
+  </si>
+  <si>
+    <t>LedgerSide</t>
+  </si>
+  <si>
+    <t>FlowAggregationPoint</t>
   </si>
 </sst>
 </file>
@@ -5565,7 +5565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D342994A-25DA-554E-8845-9DECD19C2826}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5573,32 +5573,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>41.868000000000002</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5632,7 +5632,7 @@
   <sheetData>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -5768,7 +5768,7 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2087</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>478</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>146</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <f>B5-SUM(B6:B10)</f>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
@@ -6885,7 +6885,7 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <f>SUM(B20:B24)</f>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>478</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>146</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <f>B19-SUM(B20:B24)</f>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <f>B19-B5</f>
@@ -8123,7 +8123,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8142,28 +8142,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
       <c r="J1">
         <f>PSB!V18</f>
@@ -8204,31 +8204,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <f>'FixedGHPSB ktoe original'!J2*Meta!$B$8</f>
@@ -8269,22 +8269,22 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="str">
         <f>PSB!A20</f>
@@ -8294,7 +8294,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <f>'FixedGHPSB ktoe original'!J3*Meta!$B$8</f>
@@ -8335,22 +8335,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="str">
         <f>PSB!A21</f>
@@ -8360,7 +8360,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <f>'FixedGHPSB ktoe original'!J4*Meta!$B$8</f>
@@ -8401,22 +8401,22 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="str">
         <f>PSB!A22</f>
@@ -8426,7 +8426,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J5">
         <f>'FixedGHPSB ktoe original'!J5*Meta!$B$8</f>
@@ -8467,19 +8467,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -8492,7 +8492,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <f>'FixedGHPSB ktoe original'!J6*Meta!$B$8</f>
@@ -8533,22 +8533,22 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="str">
         <f>PSB!A24</f>
@@ -8558,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J7">
         <f>'FixedGHPSB ktoe original'!J7*Meta!$B$8</f>
@@ -8599,6 +8599,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8606,8 +8607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E1910C-5D59-7349-968D-FF921C6D2CD1}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8626,28 +8627,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
       <c r="J1">
         <f>PSB!V18</f>
@@ -8688,31 +8689,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <f>PSB!V19</f>
@@ -8753,22 +8754,22 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="str">
         <f>PSB!A20</f>
@@ -8778,7 +8779,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <f>-PSB!V20</f>
@@ -8819,22 +8820,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="str">
         <f>PSB!A21</f>
@@ -8844,7 +8845,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <f>PSB!V21</f>
@@ -8885,22 +8886,22 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="str">
         <f>PSB!A22</f>
@@ -8910,7 +8911,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <f>PSB!V22</f>
@@ -8951,19 +8952,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -8976,7 +8977,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <f>PSB!V23</f>
@@ -9017,22 +9018,22 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="str">
         <f>PSB!A24</f>
@@ -9042,7 +9043,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J7">
         <f>PSB!V24</f>
